--- a/py_interface/gui/GUI state chart.xlsx
+++ b/py_interface/gui/GUI state chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/PROJECT-X/PIO/Motor-control/py_interface/gui/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30E2222E-FEC1-4855-B7AF-AA2F28465C32}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BADB8C6-DE35-45F4-9EFA-7E77AD804A9D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
-  <si>
-    <t>States</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>start_stop</t>
   </si>
@@ -48,29 +45,35 @@
     <t>set_position_control</t>
   </si>
   <si>
-    <t>set_v_percent</t>
-  </si>
-  <si>
-    <t>set_alpha</t>
-  </si>
-  <si>
-    <t>set_dth0_st</t>
-  </si>
-  <si>
-    <t>set_position_control_param</t>
-  </si>
-  <si>
-    <t>set_velocity_control_param</t>
-  </si>
-  <si>
-    <t>set_th0</t>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>button_start_stop</t>
+  </si>
+  <si>
+    <t>button_open_loop_control</t>
+  </si>
+  <si>
+    <t>button_closed_loop_control</t>
+  </si>
+  <si>
+    <t>button_switch_2_angle_feedback</t>
+  </si>
+  <si>
+    <t>button_set_velocity_control</t>
+  </si>
+  <si>
+    <t>button_set_position_control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,21 +84,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,16 +99,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -122,50 +131,235 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,131 +638,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="8" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>